--- a/04kappa/policy_tagger_dataframe_kappa.xlsx
+++ b/04kappa/policy_tagger_dataframe_kappa.xlsx
@@ -22,73 +22,73 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>wu467@purdue.edu</t>
+  </si>
+  <si>
+    <t>dai77@purdue.edu</t>
+  </si>
+  <si>
+    <t>kim1845@purdue.edu</t>
+  </si>
+  <si>
+    <t>cthieme@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan2016@purdue.edu</t>
+  </si>
+  <si>
+    <t>boyle20@purdue.edu</t>
+  </si>
+  <si>
+    <t>tdeters@purdue.edu</t>
+  </si>
+  <si>
+    <t>mxuan@purdue.edu</t>
+  </si>
+  <si>
+    <t>ahbruns@purdue.edu</t>
+  </si>
+  <si>
+    <t>afrances@purdue.edu</t>
+  </si>
+  <si>
+    <t>liu1417@purdue.edu</t>
+  </si>
+  <si>
+    <t>zheng216@purdue.edu</t>
+  </si>
+  <si>
+    <t>li470@purdue.edu</t>
+  </si>
+  <si>
+    <t>lo31@purdue.edu</t>
+  </si>
+  <si>
+    <t>xie188@purdue.edu</t>
+  </si>
+  <si>
+    <t>jdenhar@purdue.edu</t>
+  </si>
+  <si>
+    <t>krohn@purdue.edu</t>
+  </si>
+  <si>
+    <t>dean24@purdue.edu</t>
+  </si>
+  <si>
     <t>flanagak@purdue.edu</t>
   </si>
   <si>
-    <t>afrances@purdue.edu</t>
-  </si>
-  <si>
-    <t>liu1417@purdue.edu</t>
-  </si>
-  <si>
-    <t>jdenhar@purdue.edu</t>
-  </si>
-  <si>
-    <t>tdeters@purdue.edu</t>
+    <t>agosnell@purdue.edu</t>
   </si>
   <si>
     <t>zhan1565@purdue.edu</t>
   </si>
   <si>
-    <t>li470@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu467@purdue.edu</t>
-  </si>
-  <si>
-    <t>krohn@purdue.edu</t>
-  </si>
-  <si>
-    <t>zheng216@purdue.edu</t>
-  </si>
-  <si>
-    <t>xie188@purdue.edu</t>
-  </si>
-  <si>
-    <t>mxuan@purdue.edu</t>
-  </si>
-  <si>
-    <t>boyle20@purdue.edu</t>
-  </si>
-  <si>
-    <t>agosnell@purdue.edu</t>
-  </si>
-  <si>
-    <t>dai77@purdue.edu</t>
+    <t>zhan1345@purdue.edu</t>
   </si>
   <si>
     <t>mcarrasc@purdue.edu</t>
-  </si>
-  <si>
-    <t>dean24@purdue.edu</t>
-  </si>
-  <si>
-    <t>kim1845@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan2016@purdue.edu</t>
-  </si>
-  <si>
-    <t>ahbruns@purdue.edu</t>
-  </si>
-  <si>
-    <t>cthieme@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan1345@purdue.edu</t>
-  </si>
-  <si>
-    <t>lo31@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.492307692307692</v>
+        <v>0.769230769230769</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.782608695652174</v>
+        <v>0.688888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.575757575757576</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.421768707482993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.434782608695652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.769230769230769</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.444444444444445</v>
+        <v>0.620689655172414</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.417910447761194</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.7</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -600,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.434782608695652</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.571428571428571</v>
+        <v>0.575757575757576</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.476190476190476</v>
+        <v>0.444444444444445</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.688888888888889</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -666,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.421768707482993</v>
+        <v>0.492307692307692</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.620689655172414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -688,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -710,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.708333333333333</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
   </sheetData>
